--- a/data/takipozet_holding.xlsx
+++ b/data/takipozet_holding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguraskar\Documents\Github\pjournal_mef04-uguraskar\mef04-uguraskar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5F324A-E81F-4401-9538-248F57F9BD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2DE79C-77E3-4D1C-A1A0-476A0DB48F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isyatirim" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,12 @@
     <t>AGHOL</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>26.11.2020</t>
   </si>
   <si>
     <t>ALARK</t>
   </si>
   <si>
-    <t>TUT</t>
-  </si>
-  <si>
     <t>KCHOL</t>
   </si>
   <si>
@@ -62,6 +56,12 @@
   </si>
   <si>
     <t>Market Cap (mn TL)</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>BUY</t>
   </si>
 </sst>
 </file>
@@ -414,32 +414,32 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>29</v>
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>28.38</v>
@@ -467,10 +467,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>7.3</v>
@@ -479,7 +479,7 @@
         <v>-20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>9.08</v>
@@ -490,10 +490,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>27</v>
@@ -502,7 +502,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>21.52</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>13.5</v>
@@ -525,7 +525,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>11.69</v>
